--- a/GAN/GAN_final_result.xlsx
+++ b/GAN/GAN_final_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasbudig/Documents/Programmieren/python/attack-hypotheses-generation/GAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDBFEA7-B9C1-4C4D-932F-111F31E11685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FC25EC-4387-6043-A9A5-4E8B95E3AC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-55500" yWindow="-12880" windowWidth="46600" windowHeight="24900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GS195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FK164" workbookViewId="0">
-      <selection activeCell="FZ169" sqref="FZ169"/>
+    <sheetView tabSelected="1" topLeftCell="FK154" workbookViewId="0">
+      <selection activeCell="FS165" sqref="FS165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -119044,16 +119044,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B194:GS194">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>"0.7"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194:XFD194">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FK2:GS193">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>1</formula>
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
